--- a/VeselinL/Занятие8/Bug Template - Veselin.xlsx
+++ b/VeselinL/Занятие8/Bug Template - Veselin.xlsx
@@ -122,9 +122,6 @@
     <t>When you go on store information and try to chek the address on the map - the button is not clickable</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open http://automationpractice.com/index.php 2 Go on the botton of the page and click map hyperlink  Expected result : Should open map with the address </t>
-  </si>
-  <si>
     <t>http://myprintscreen.com/s/z3lu/019f396514</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">PSB004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open http://automationpractice.com/index.php 2 Go on the bottom of the page and click map hyperlink  Expected result : Should open map with the address </t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
